--- a/demo/导表/电气入库/6小电阻成套接地装置.xlsx
+++ b/demo/导表/电气入库/6小电阻成套接地装置.xlsx
@@ -19,39 +19,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>型式</t>
-  </si>
-  <si>
-    <t>额定电压</t>
+    <t>DKSC-150/37</t>
+  </si>
+  <si>
+    <t>TypeID</t>
+  </si>
+  <si>
+    <t>TypeName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DKSC-150/37</t>
-  </si>
-  <si>
-    <t>额定容量</t>
-  </si>
-  <si>
-    <t>入地阻性电流</t>
-  </si>
-  <si>
-    <t>电阻阻值</t>
-  </si>
-  <si>
-    <t>通流时间</t>
+    <t>RatedVoltage</t>
+  </si>
+  <si>
+    <t>RatedCapacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EarthResistanceCurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResistanceTolerance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FlowTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,15 +76,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="15"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Fira Code Medium"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -103,7 +109,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -452,58 +460,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="18.75">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>37</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>150</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>51.32</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>416</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10</v>
       </c>
     </row>
